--- a/Ciudades/Colores_Coleccion_Distancia (1).xlsx
+++ b/Ciudades/Colores_Coleccion_Distancia (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Ciudades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ciudades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD09EC2A-D0F1-454E-BACB-1F69FF720DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4788C8-BC5E-4F41-A58B-CEA5E2E60FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-48" yWindow="2148" windowWidth="11064" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rangos_Variables" sheetId="3" r:id="rId1"/>
@@ -808,16 +808,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76540</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51104</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376594</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -839,8 +839,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19370040" y="259420"/>
-          <a:ext cx="2994660" cy="1254724"/>
+          <a:off x="5133975" y="28915"/>
+          <a:ext cx="7177444" cy="2980985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2279,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8265DBE5-B1CD-4A0B-B496-EAAB288B2BAB}">
   <dimension ref="A3:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
